--- a/raw_data/KEEN ONE/Grabowski/2015/Pumphouse Beach/Pumphouse_Subcanopy_kelp_1_25_17.xlsx
+++ b/raw_data/KEEN ONE/Grabowski/2015/Pumphouse Beach/Pumphouse_Subcanopy_kelp_1_25_17.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jebyrnes/Dropbox (Byrnes Lab)/Byrnes Lab Shared Folder/KEEN Data Processing/Monitoring/raw_data/KEEN ONE/Grabowski/2015/Pumphouse Beach/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94166A17-4E59-9243-9136-281DD785E4C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19500" yWindow="0" windowWidth="16785" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="12020" yWindow="460" windowWidth="16780" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="Allowed Codes" sheetId="2" r:id="rId2"/>
+    <sheet name="Cleaning" sheetId="3" r:id="rId2"/>
+    <sheet name="Allowed Codes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="30">
   <si>
     <t>YEAR</t>
   </si>
@@ -137,11 +144,23 @@
   <si>
     <t>SJTMC</t>
   </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Changed line 18 transect to 2 from 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="00"/>
@@ -216,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -257,6 +276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,6 +286,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,32 +615,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="15" customWidth="1"/>
     <col min="6" max="7" width="11" style="15"/>
-    <col min="8" max="8" width="18.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="15"/>
-    <col min="12" max="12" width="10.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>2015</v>
       </c>
@@ -700,7 +723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2015</v>
       </c>
@@ -738,7 +761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>2015</v>
       </c>
@@ -776,7 +799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2015</v>
       </c>
@@ -814,7 +837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>2015</v>
       </c>
@@ -852,7 +875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>2015</v>
       </c>
@@ -890,7 +913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2015</v>
       </c>
@@ -928,7 +951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>2015</v>
       </c>
@@ -966,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>2015</v>
       </c>
@@ -1004,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2015</v>
       </c>
@@ -1042,7 +1065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>2015</v>
       </c>
@@ -1080,7 +1103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>2015</v>
       </c>
@@ -1118,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>2015</v>
       </c>
@@ -1156,7 +1179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>2015</v>
       </c>
@@ -1194,7 +1217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>2015</v>
       </c>
@@ -1232,7 +1255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>2015</v>
       </c>
@@ -1270,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>2015</v>
       </c>
@@ -1287,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>21</v>
@@ -1308,7 +1331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>2015</v>
       </c>
@@ -1346,7 +1369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>2015</v>
       </c>
@@ -1384,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>2015</v>
       </c>
@@ -1422,7 +1445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>2015</v>
       </c>
@@ -1460,7 +1483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D23" s="16"/>
     </row>
   </sheetData>
@@ -1468,7 +1491,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Allowed Codes'!$A:$A</xm:f>
           </x14:formula1>
@@ -1484,16 +1507,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6491E69A-A111-8D4C-B3EA-0CE6256DA75F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>43657</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>14</v>
@@ -1501,7 +1560,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1570,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
@@ -1521,7 +1580,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -1531,7 +1590,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
